--- a/Daily Activity/2024 Work Sheet.xlsx
+++ b/Daily Activity/2024 Work Sheet.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="114">
   <si>
     <t xml:space="preserve">DATE</t>
   </si>
@@ -332,6 +332,28 @@
   </si>
   <si>
     <t xml:space="preserve">Checked DSO Case(I-43221)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Checked DSO Case </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(I-43221)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Checked group credit limit </t>
   </si>
   <si>
     <t xml:space="preserve">COUNTIF(K2:K31,"YES")</t>
@@ -400,7 +422,7 @@
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
     <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -428,6 +450,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -628,7 +655,7 @@
       <selection pane="bottomLeft" activeCell="H26" activeCellId="0" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="31.3"/>
@@ -974,7 +1001,7 @@
       <selection pane="bottomLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="22.88"/>
@@ -1673,10 +1700,10 @@
   <dimension ref="A1:AMJ33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
+      <selection pane="topLeft" activeCell="I23" activeCellId="0" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="22.88"/>
@@ -2220,6 +2247,21 @@
       <c r="A22" s="3" t="n">
         <v>45647</v>
       </c>
+      <c r="D22" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="n">
@@ -2279,14 +2321,14 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="8" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G33" s="6"/>
       <c r="I33" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J33" s="2"/>
       <c r="L33" s="5"/>
@@ -2314,70 +2356,70 @@
       <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B11" s="0" t="n">
         <f aca="false">COUNTIF('Oct-10'!J2:J32,"YES")</f>
@@ -2390,7 +2432,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B12" s="0" t="n">
         <f aca="false">COUNTIF('Nov-11'!B2:B31,"YES")</f>
@@ -2407,7 +2449,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B13" s="10" t="n">
         <f aca="false">COUNTIF('Dec-12'!B2:B31,"YES")</f>

--- a/Daily Activity/2024 Work Sheet.xlsx
+++ b/Daily Activity/2024 Work Sheet.xlsx
@@ -13,6 +13,9 @@
     <sheet name="Dec-12" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Summary" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'Dec-12'!$A$1:$V$33</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -23,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="113">
   <si>
     <t xml:space="preserve">DATE</t>
   </si>
@@ -55,7 +58,7 @@
     <t xml:space="preserve">HOILDAYS</t>
   </si>
   <si>
-    <t xml:space="preserve">LEAVE TAKKEN</t>
+    <t xml:space="preserve">LEAVE TAKEN</t>
   </si>
   <si>
     <t xml:space="preserve">PERMISSON</t>
@@ -119,34 +122,34 @@
     <t xml:space="preserve">YES</t>
   </si>
   <si>
-    <t xml:space="preserve">Checked STA, NPO, SBT, RBT
+    <t xml:space="preserve">Tested STA, NPO, SBT, RBT
 2HH2409-10013
 1NPO2409-10046
 1IM22409-10072</t>
   </si>
   <si>
-    <t xml:space="preserve">Checked PI, IT, SO
+    <t xml:space="preserve">Tested PI, IT, SO
 2IM12409-10004
 2HH2409-10011
 2SO52409-10011</t>
   </si>
   <si>
-    <t xml:space="preserve">Checked NPO, NAR
+    <t xml:space="preserve">Tested NPO, NAR
 1NAR2409-10601
 1NPO2409-10062</t>
   </si>
   <si>
-    <t xml:space="preserve">Checked CD, CPN
+    <t xml:space="preserve">Tested CD, CPN
 1CPN2409-10602
 1AR12409-12501</t>
   </si>
   <si>
-    <t xml:space="preserve">Checked import 
+    <t xml:space="preserve">Tested import 
 consignment order
 Customer RMA</t>
   </si>
   <si>
-    <t xml:space="preserve">Checked Import
+    <t xml:space="preserve">Tested Import
 Incident Charge Invoice
 Internal Transfer Invoice</t>
   </si>
@@ -166,7 +169,7 @@
     <t xml:space="preserve">Assigned By</t>
   </si>
   <si>
-    <t xml:space="preserve">Checked Assigned Reports (73)</t>
+    <t xml:space="preserve">Tested Assigned Reports (73)</t>
   </si>
   <si>
     <t xml:space="preserve">Inprogress</t>
@@ -181,46 +184,46 @@
     <t xml:space="preserve">AWS 8098</t>
   </si>
   <si>
-    <t xml:space="preserve">Checkeded resolved bug from 4:11:24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">checked Workflow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Checked WF26 (Financial Reports)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Checked WF01 (PO)</t>
+    <t xml:space="preserve">Testeded resolved bug from 4:11:24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tested Workflow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tested WF26 (Financial Reports)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tested WF01 (PO)</t>
   </si>
   <si>
     <t xml:space="preserve">PO Management</t>
   </si>
   <si>
-    <t xml:space="preserve">Checked WF31 (Production)</t>
+    <t xml:space="preserve">Tested WF31 (Production)</t>
   </si>
   <si>
     <t xml:space="preserve">Inventory Management</t>
   </si>
   <si>
-    <t xml:space="preserve">Checked WF07 (NTA AR Invoice)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Checked assigned bugs (25)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Checked WF09 (VAT Transfer)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Checked WF14 (Marketing Campagin)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Checked WF36 (STA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Checked WF03 (NTA PO)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Checked Job</t>
+    <t xml:space="preserve">Tested WF07 (NTA AR Invoice)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tested assigned bugs (25)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tested WF09 (VAT Transfer)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tested WF14 (Marketing Campagin)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tested WF36 (STA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tested WF03 (NTA PO)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tested Job</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -229,19 +232,19 @@
     <t xml:space="preserve">Manjula</t>
   </si>
   <si>
-    <t xml:space="preserve">Checked 6 reports</t>
+    <t xml:space="preserve">Tested 6 reports</t>
   </si>
   <si>
     <t xml:space="preserve">Manirathnam</t>
   </si>
   <si>
-    <t xml:space="preserve">Checked WF17 (promotion order)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Checked WF17 Reports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Checked WF39 (FA Register)</t>
+    <t xml:space="preserve">Tested WF17 (promotion order)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tested WF17 Reports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tested WF39 (FA Register)</t>
   </si>
   <si>
     <t xml:space="preserve">FAM</t>
@@ -250,7 +253,7 @@
     <t xml:space="preserve">Description</t>
   </si>
   <si>
-    <t xml:space="preserve">Checked Assigned Bugs (17)</t>
+    <t xml:space="preserve">Tested Assigned Bugs (17)</t>
   </si>
   <si>
     <t xml:space="preserve">Manirathnam
@@ -261,7 +264,7 @@
 4</t>
   </si>
   <si>
-    <t xml:space="preserve">Checked Assigned Bugs (11)</t>
+    <t xml:space="preserve">Tested Assigned Bugs (11)</t>
   </si>
   <si>
     <t xml:space="preserve">Import Payment HSBC</t>
@@ -275,7 +278,7 @@
 HSBC</t>
   </si>
   <si>
-    <t xml:space="preserve">Checked if PSS Document number in 
+    <t xml:space="preserve">Tested if PSS Document number in 
 general config is changing after import 
 Payment HSBC</t>
   </si>
@@ -316,7 +319,7 @@
     <t xml:space="preserve">Promotion order incident 42669</t>
   </si>
   <si>
-    <t xml:space="preserve">Checked resolved bugs(4)</t>
+    <t xml:space="preserve">Tested resolved bugs(4)</t>
   </si>
   <si>
     <t xml:space="preserve">Row testing in centra</t>
@@ -328,41 +331,19 @@
     <t xml:space="preserve">UAT</t>
   </si>
   <si>
-    <t xml:space="preserve">Checked DSO Case (I-43221)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Checked DSO Case(I-43221)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Checked DSO Case </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(I-43221)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Checked group credit limit </t>
-  </si>
-  <si>
-    <t xml:space="preserve">COUNTIF(K2:K31,"YES")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COUNTIF(L2:L31,"YES")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUM(G2:G31)</t>
+    <t xml:space="preserve">Tested DSO Case (I-43221)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tested DSO Case(I-43221)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tested group credit limit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tested Exports In DMS (7 Cases)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prepared CheckList For UAT</t>
   </si>
   <si>
     <t xml:space="preserve">MONTH</t>
@@ -411,16 +392,20 @@
   </si>
   <si>
     <t xml:space="preserve">December</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
-    <numFmt numFmtId="166" formatCode="General"/>
+    <numFmt numFmtId="166" formatCode="hh:mm:ss"/>
+    <numFmt numFmtId="167" formatCode="General"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -457,7 +442,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -476,8 +461,14 @@
         <bgColor rgb="FF66BAAA"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4C7DC"/>
+        <bgColor rgb="FFCCCCFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -490,6 +481,13 @@
       <right style="hair"/>
       <top style="hair"/>
       <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -525,7 +523,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -558,15 +556,39 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -579,6 +601,22 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF66BAAA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00FFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -595,7 +633,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFB4C7DC"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -642,6 +680,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -650,12 +692,12 @@
   <dimension ref="A1:R44"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H26" activeCellId="0" sqref="H26"/>
+      <selection pane="bottomLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="31.3"/>
@@ -996,12 +1038,12 @@
   <dimension ref="A1:AMJ31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="C30" activeCellId="0" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="22.88"/>
@@ -1699,11 +1741,13 @@
   </sheetPr>
   <dimension ref="A1:AMJ33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I23" activeCellId="0" sqref="I23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="0" topLeftCell="B10" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="topRight" activeCell="D28" activeCellId="0" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="22.88"/>
@@ -1721,7 +1765,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="12.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="21.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="12.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="7.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="10.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="9.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="7.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="25.79"/>
@@ -1797,15 +1841,16 @@
       </c>
       <c r="AMJ1" s="0"/>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="n">
+    <row r="2" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="8" t="n">
         <v>45627</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2" s="9"/>
+    </row>
+    <row r="3" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="n">
         <v>45628</v>
       </c>
@@ -1834,7 +1879,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="n">
         <v>45629</v>
       </c>
@@ -1976,13 +2021,14 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="n">
+    <row r="9" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8" t="n">
         <v>45634</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="9" t="s">
         <v>27</v>
       </c>
+      <c r="C9" s="9"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="n">
@@ -2128,14 +2174,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="n">
+    <row r="16" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="8" t="n">
         <v>45641</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="2"/>
+      <c r="C16" s="9"/>
+      <c r="G16" s="10"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="n">
@@ -2248,10 +2295,10 @@
         <v>45647</v>
       </c>
       <c r="D22" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" s="0" t="s">
         <v>93</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>94</v>
       </c>
       <c r="F22" s="0" t="s">
         <v>20</v>
@@ -2263,18 +2310,37 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="n">
+    <row r="23" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="8" t="n">
         <v>45648</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="9" t="s">
         <v>27</v>
       </c>
+      <c r="C23" s="9"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="n">
         <v>45649</v>
       </c>
+      <c r="D24" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q24" s="12" t="n">
+        <v>0.353472222222222</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="n">
@@ -2301,13 +2367,14 @@
         <v>45654</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="n">
+    <row r="30" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="8" t="n">
         <v>45655</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="9" t="s">
         <v>27</v>
       </c>
+      <c r="C30" s="9"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="n">
@@ -2320,21 +2387,16 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>96</v>
-      </c>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
       <c r="G33" s="6"/>
-      <c r="I33" s="2" t="s">
-        <v>97</v>
-      </c>
+      <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="L33" s="5"/>
       <c r="M33" s="5"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:V33"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2342,6 +2404,7 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2350,76 +2413,76 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
+    <row r="1" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="D1" s="14" t="s">
         <v>99</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B11" s="0" t="n">
         <f aca="false">COUNTIF('Oct-10'!J2:J32,"YES")</f>
@@ -2432,13 +2495,13 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B12" s="0" t="n">
         <f aca="false">COUNTIF('Nov-11'!B2:B31,"YES")</f>
         <v>6</v>
       </c>
-      <c r="C12" s="10" t="n">
+      <c r="C12" s="15" t="n">
         <f aca="false">COUNTIF('Nov-11'!C2:C32,"YES")</f>
         <v>1</v>
       </c>
@@ -2449,9 +2512,9 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="B13" s="10" t="n">
+        <v>111</v>
+      </c>
+      <c r="B13" s="15" t="n">
         <f aca="false">COUNTIF('Dec-12'!B2:B31,"YES")</f>
         <v>5</v>
       </c>
@@ -2462,6 +2525,23 @@
       <c r="D13" s="0" t="n">
         <f aca="false">SUM('Dec-12'!I2:I30)</f>
         <v>2</v>
+      </c>
+    </row>
+    <row r="15" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B15" s="16" t="n">
+        <f aca="false">SUM(B2:B13)</f>
+        <v>13</v>
+      </c>
+      <c r="C15" s="16" t="n">
+        <f aca="false">SUM(C2:C13)</f>
+        <v>1</v>
+      </c>
+      <c r="D15" s="16" t="n">
+        <f aca="false">SUM(D2:D13)</f>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Daily Activity/2024 Work Sheet.xlsx
+++ b/Daily Activity/2024 Work Sheet.xlsx
@@ -15,6 +15,7 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'Dec-12'!$A$1:$V$33</definedName>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'Nov-11'!$A$1:$U$31</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="117">
   <si>
     <t xml:space="preserve">DATE</t>
   </si>
@@ -346,6 +347,18 @@
     <t xml:space="preserve">Prepared CheckList For UAT</t>
   </si>
   <si>
+    <t xml:space="preserve">Purchase KT Document Assigned(5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HQOW/ ROW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AWS 8182/ 8181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sales Test Cycle document Assigned(8)</t>
+  </si>
+  <si>
     <t xml:space="preserve">MONTH</t>
   </si>
   <si>
@@ -401,11 +414,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
-    <numFmt numFmtId="166" formatCode="hh:mm:ss"/>
-    <numFmt numFmtId="167" formatCode="General"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="167" formatCode="hh:mm:ss"/>
+    <numFmt numFmtId="168" formatCode="General"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -468,7 +482,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -491,6 +505,20 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
@@ -523,7 +551,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="29">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -552,11 +580,59 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -568,23 +644,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -684,6 +760,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -697,7 +777,7 @@
       <selection pane="bottomLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="31.3"/>
@@ -1038,12 +1118,12 @@
   <dimension ref="A1:AMJ31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C30" activeCellId="0" sqref="C30"/>
+      <selection pane="bottomLeft" activeCell="O9" activeCellId="0" sqref="O9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="22.88"/>
@@ -1054,16 +1134,15 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="6" width="15.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="20.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="6.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="16.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="12.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="21.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="12.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="7.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="9.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="7.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="25.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="16.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="9.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="19.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="15.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="24.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="15.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="10.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="9.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="27.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="15.68"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1163,13 +1242,16 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="n">
+    <row r="4" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="7" t="n">
         <v>45599</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="8" t="s">
         <v>27</v>
       </c>
+      <c r="C4" s="8"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="n">
@@ -1300,13 +1382,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="n">
+    <row r="11" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="7" t="n">
         <v>45606</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="8" t="s">
         <v>27</v>
       </c>
+      <c r="C11" s="8"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="n">
@@ -1446,13 +1531,16 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="n">
+    <row r="18" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="7" t="n">
         <v>45613</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="8" t="s">
         <v>27</v>
       </c>
+      <c r="C18" s="8"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="n">
@@ -1572,27 +1660,33 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="n">
+    <row r="24" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="11" t="n">
         <v>45619</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="12" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="n">
+      <c r="C24" s="12"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+    </row>
+    <row r="25" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="15" t="n">
         <v>45620</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="16" t="s">
         <v>27</v>
       </c>
+      <c r="C25" s="16"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="n">
         <v>45621</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="19" t="s">
         <v>57</v>
       </c>
       <c r="F26" s="0" t="s">
@@ -1715,15 +1809,19 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="n">
+    <row r="31" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="7" t="n">
         <v>45626</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="8" t="s">
         <v>27</v>
       </c>
+      <c r="C31" s="8"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:U31"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1731,6 +1829,7 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1741,21 +1840,21 @@
   </sheetPr>
   <dimension ref="A1:AMJ33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="B10" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
-      <selection pane="topRight" activeCell="D28" activeCellId="0" sqref="D28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="0" topLeftCell="B19" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
+      <selection pane="topRight" activeCell="F27" activeCellId="0" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="22.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="5" width="22.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="34.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="33.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="34.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.58"/>
@@ -1764,9 +1863,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="22.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="12.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="21.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="12.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="15.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="10.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="9.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="7.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="25.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="18.69"/>
@@ -1841,14 +1939,14 @@
       </c>
       <c r="AMJ1" s="0"/>
     </row>
-    <row r="2" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="n">
+    <row r="2" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="20" t="n">
         <v>45627</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="9"/>
+      <c r="C2" s="21"/>
     </row>
     <row r="3" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="n">
@@ -2021,14 +2119,14 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="n">
+    <row r="9" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="20" t="n">
         <v>45634</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="9"/>
+      <c r="C9" s="21"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="n">
@@ -2174,15 +2272,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8" t="n">
+    <row r="16" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="20" t="n">
         <v>45641</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="G16" s="10"/>
+      <c r="C16" s="21"/>
+      <c r="G16" s="22"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="n">
@@ -2310,14 +2408,14 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="8" t="n">
+    <row r="23" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="20" t="n">
         <v>45648</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="9"/>
+      <c r="C23" s="21"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="n">
@@ -2326,7 +2424,7 @@
       <c r="D24" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="E24" s="2" t="s">
         <v>95</v>
       </c>
       <c r="F24" s="0" t="s">
@@ -2338,7 +2436,7 @@
       <c r="H24" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="Q24" s="12" t="n">
+      <c r="Q24" s="23" t="n">
         <v>0.353472222222222</v>
       </c>
     </row>
@@ -2346,16 +2444,47 @@
       <c r="A25" s="3" t="n">
         <v>45650</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="n">
+      <c r="D25" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q25" s="23" t="n">
+        <v>0.361111111111111</v>
+      </c>
+    </row>
+    <row r="26" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="7" t="n">
         <v>45651</v>
       </c>
+      <c r="B26" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="8"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="n">
         <v>45652</v>
       </c>
+      <c r="D27" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="E27" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q27" s="23" t="n">
+        <v>0.352083333333333</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="n">
@@ -2367,14 +2496,14 @@
         <v>45654</v>
       </c>
     </row>
-    <row r="30" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="8" t="n">
+    <row r="30" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="20" t="n">
         <v>45655</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="9"/>
+      <c r="C30" s="21"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="n">
@@ -2387,8 +2516,8 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
       <c r="G33" s="6"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
@@ -2419,70 +2548,70 @@
       <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>99</v>
+    <row r="1" s="26" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B11" s="0" t="n">
         <f aca="false">COUNTIF('Oct-10'!J2:J32,"YES")</f>
@@ -2495,13 +2624,13 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B12" s="0" t="n">
         <f aca="false">COUNTIF('Nov-11'!B2:B31,"YES")</f>
         <v>6</v>
       </c>
-      <c r="C12" s="15" t="n">
+      <c r="C12" s="27" t="n">
         <f aca="false">COUNTIF('Nov-11'!C2:C32,"YES")</f>
         <v>1</v>
       </c>
@@ -2512,11 +2641,11 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="B13" s="15" t="n">
+        <v>115</v>
+      </c>
+      <c r="B13" s="27" t="n">
         <f aca="false">COUNTIF('Dec-12'!B2:B31,"YES")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C13" s="0" t="n">
         <f aca="false">COUNTIF('Dec-12'!C2:C32,"YES")</f>
@@ -2527,19 +2656,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="B15" s="16" t="n">
+    <row r="15" s="28" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="B15" s="28" t="n">
         <f aca="false">SUM(B2:B13)</f>
-        <v>13</v>
-      </c>
-      <c r="C15" s="16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C15" s="28" t="n">
         <f aca="false">SUM(C2:C13)</f>
         <v>1</v>
       </c>
-      <c r="D15" s="16" t="n">
+      <c r="D15" s="28" t="n">
         <f aca="false">SUM(D2:D13)</f>
         <v>36</v>
       </c>

--- a/Daily Activity/2024 Work Sheet.xlsx
+++ b/Daily Activity/2024 Work Sheet.xlsx
@@ -14,7 +14,7 @@
     <sheet name="Summary" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'Dec-12'!$A$1:$V$33</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'Dec-12'!$A$1:$W$33</definedName>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'Nov-11'!$A$1:$U$31</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="118">
   <si>
     <t xml:space="preserve">DATE</t>
   </si>
@@ -251,6 +251,9 @@
     <t xml:space="preserve">FAM</t>
   </si>
   <si>
+    <t xml:space="preserve">Count</t>
+  </si>
+  <si>
     <t xml:space="preserve">Description</t>
   </si>
   <si>
@@ -414,12 +417,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
-    <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
-    <numFmt numFmtId="167" formatCode="hh:mm:ss"/>
-    <numFmt numFmtId="168" formatCode="General"/>
+    <numFmt numFmtId="166" formatCode="hh:mm:ss"/>
+    <numFmt numFmtId="167" formatCode="General"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -551,7 +553,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -632,10 +634,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -644,7 +642,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -660,7 +658,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -777,7 +775,7 @@
       <selection pane="bottomLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="31.3"/>
@@ -1123,7 +1121,7 @@
       <selection pane="bottomLeft" activeCell="O9" activeCellId="0" sqref="O9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="22.88"/>
@@ -1838,15 +1836,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ33"/>
+  <dimension ref="A1:W33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="B19" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
-      <selection pane="topRight" activeCell="F27" activeCellId="0" sqref="F27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="0" topLeftCell="B16" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
+      <selection pane="topRight" activeCell="I24" activeCellId="0" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="22.88"/>
@@ -1856,18 +1854,18 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="15.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="22.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="22.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="12.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="21.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="15.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="10.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="7.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="25.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="18.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="13.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="10.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="15.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="22.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="22.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="12.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="21.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="15.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="10.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="7.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="25.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="18.69"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1896,67 +1894,69 @@
         <v>5</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AMJ1" s="0"/>
+      <c r="W1" s="1" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="2" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="20" t="n">
+      <c r="A2" s="7" t="n">
         <v>45627</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="21"/>
-    </row>
-    <row r="3" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2" s="20"/>
+    </row>
+    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="n">
         <v>45628</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F3" s="0" t="s">
         <v>20</v>
@@ -1967,25 +1967,25 @@
       <c r="H3" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="J3" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="U3" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="V3" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W3" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="n">
         <v>45629</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>20</v>
@@ -1996,14 +1996,15 @@
       <c r="H4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="I4" s="2"/>
+      <c r="J4" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="U4" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="V4" s="4" t="s">
         <v>73</v>
+      </c>
+      <c r="W4" s="4" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="36.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2011,10 +2012,10 @@
         <v>45630</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F5" s="0" t="s">
         <v>20</v>
@@ -2025,13 +2026,13 @@
       <c r="H5" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="J5" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K5" s="0" t="s">
+      <c r="L5" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="U5" s="0" t="s">
+      <c r="V5" s="0" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2040,10 +2041,10 @@
         <v>45631</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F6" s="0" t="s">
         <v>20</v>
@@ -2054,13 +2055,13 @@
       <c r="H6" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="J6" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K6" s="0" t="s">
+      <c r="L6" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="U6" s="0" t="s">
+      <c r="V6" s="0" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2069,10 +2070,10 @@
         <v>45632</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>20</v>
@@ -2083,13 +2084,13 @@
       <c r="H7" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="J7" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K7" s="0" t="s">
+      <c r="L7" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="U7" s="0" t="s">
+      <c r="V7" s="0" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2098,10 +2099,10 @@
         <v>45633</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F8" s="0" t="s">
         <v>20</v>
@@ -2112,31 +2113,31 @@
       <c r="H8" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="0" t="n">
+      <c r="J8" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="U8" s="0" t="s">
+      <c r="V8" s="0" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="9" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="20" t="n">
+      <c r="A9" s="7" t="n">
         <v>45634</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="21"/>
+      <c r="C9" s="20"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="n">
         <v>45635</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F10" s="0" t="s">
         <v>20</v>
@@ -2147,10 +2148,11 @@
       <c r="H10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="0" t="n">
+      <c r="I10" s="2"/>
+      <c r="J10" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="U10" s="0" t="s">
+      <c r="V10" s="0" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2159,10 +2161,10 @@
         <v>45636</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>20</v>
@@ -2173,10 +2175,11 @@
       <c r="H11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="0" t="n">
+      <c r="I11" s="2"/>
+      <c r="J11" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="U11" s="0" t="s">
+      <c r="V11" s="0" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2185,10 +2188,10 @@
         <v>45637</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F12" s="0" t="s">
         <v>20</v>
@@ -2197,9 +2200,9 @@
         <v>43</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="U12" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="V12" s="0" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2208,10 +2211,10 @@
         <v>45638</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F13" s="0" t="s">
         <v>20</v>
@@ -2222,7 +2225,7 @@
       <c r="H13" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="U13" s="0" t="s">
+      <c r="V13" s="0" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2231,10 +2234,10 @@
         <v>45639</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F14" s="0" t="s">
         <v>20</v>
@@ -2245,7 +2248,7 @@
       <c r="H14" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="U14" s="0" t="s">
+      <c r="V14" s="0" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2254,10 +2257,10 @@
         <v>45640</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F15" s="0" t="s">
         <v>20</v>
@@ -2268,29 +2271,29 @@
       <c r="H15" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="U15" s="2" t="s">
+      <c r="V15" s="2" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="16" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="20" t="n">
+      <c r="A16" s="7" t="n">
         <v>45641</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="G16" s="22"/>
+      <c r="C16" s="20"/>
+      <c r="G16" s="21"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="n">
         <v>45642</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>20</v>
@@ -2301,7 +2304,8 @@
       <c r="H17" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="U17" s="0" t="s">
+      <c r="I17" s="2"/>
+      <c r="V17" s="0" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2310,10 +2314,10 @@
         <v>45643</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>20</v>
@@ -2330,10 +2334,10 @@
         <v>45644</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>20</v>
@@ -2350,21 +2354,21 @@
         <v>45645</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H20" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="I20" s="0" t="n">
+      <c r="J20" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2373,10 +2377,10 @@
         <v>45646</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F21" s="0" t="s">
         <v>20</v>
@@ -2393,10 +2397,10 @@
         <v>45647</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F22" s="0" t="s">
         <v>20</v>
@@ -2409,23 +2413,23 @@
       </c>
     </row>
     <row r="23" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="20" t="n">
+      <c r="A23" s="7" t="n">
         <v>45648</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="21"/>
+      <c r="C23" s="20"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="n">
         <v>45649</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F24" s="0" t="s">
         <v>20</v>
@@ -2436,7 +2440,7 @@
       <c r="H24" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="Q24" s="23" t="n">
+      <c r="R24" s="22" t="n">
         <v>0.353472222222222</v>
       </c>
     </row>
@@ -2445,21 +2449,24 @@
         <v>45650</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H25" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="Q25" s="23" t="n">
+      <c r="I25" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" s="22" t="n">
         <v>0.361111111111111</v>
       </c>
     </row>
@@ -2476,13 +2483,25 @@
       <c r="A27" s="3" t="n">
         <v>45652</v>
       </c>
-      <c r="D27" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="E27" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q27" s="23" t="n">
+      <c r="D27" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F27" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" s="22" t="n">
         <v>0.352083333333333</v>
       </c>
     </row>
@@ -2497,13 +2516,13 @@
       </c>
     </row>
     <row r="30" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="20" t="n">
+      <c r="A30" s="7" t="n">
         <v>45655</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="21"/>
+      <c r="C30" s="20"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="n">
@@ -2516,16 +2535,16 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
       <c r="G33" s="6"/>
-      <c r="I33" s="2"/>
       <c r="J33" s="2"/>
-      <c r="L33" s="5"/>
+      <c r="K33" s="2"/>
       <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V33"/>
+  <autoFilter ref="A1:W33"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2548,70 +2567,70 @@
       <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" s="26" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="B1" s="26" t="s">
+    <row r="1" s="25" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="C1" s="25" t="s">
         <v>103</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B11" s="0" t="n">
         <f aca="false">COUNTIF('Oct-10'!J2:J32,"YES")</f>
@@ -2624,13 +2643,13 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B12" s="0" t="n">
         <f aca="false">COUNTIF('Nov-11'!B2:B31,"YES")</f>
         <v>6</v>
       </c>
-      <c r="C12" s="27" t="n">
+      <c r="C12" s="26" t="n">
         <f aca="false">COUNTIF('Nov-11'!C2:C32,"YES")</f>
         <v>1</v>
       </c>
@@ -2641,9 +2660,9 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="B13" s="27" t="n">
+        <v>116</v>
+      </c>
+      <c r="B13" s="26" t="n">
         <f aca="false">COUNTIF('Dec-12'!B2:B31,"YES")</f>
         <v>6</v>
       </c>
@@ -2652,23 +2671,23 @@
         <v>0</v>
       </c>
       <c r="D13" s="0" t="n">
-        <f aca="false">SUM('Dec-12'!I2:I30)</f>
+        <f aca="false">SUM('Dec-12'!J2:J30)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="15" s="28" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="B15" s="28" t="n">
+    <row r="15" s="27" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="B15" s="27" t="n">
         <f aca="false">SUM(B2:B13)</f>
         <v>14</v>
       </c>
-      <c r="C15" s="28" t="n">
+      <c r="C15" s="27" t="n">
         <f aca="false">SUM(C2:C13)</f>
         <v>1</v>
       </c>
-      <c r="D15" s="28" t="n">
+      <c r="D15" s="27" t="n">
         <f aca="false">SUM(D2:D13)</f>
         <v>36</v>
       </c>

--- a/Daily Activity/2024 Work Sheet.xlsx
+++ b/Daily Activity/2024 Work Sheet.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="121">
   <si>
     <t xml:space="preserve">DATE</t>
   </si>
@@ -360,6 +360,15 @@
   </si>
   <si>
     <t xml:space="preserve">Sales Test Cycle document Assigned(8)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inprogress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inventory test cycle (5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Centra </t>
   </si>
   <si>
     <t xml:space="preserve">MONTH</t>
@@ -775,7 +784,7 @@
       <selection pane="bottomLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.01953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="31.3"/>
@@ -1121,7 +1130,7 @@
       <selection pane="bottomLeft" activeCell="O9" activeCellId="0" sqref="O9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="22.88"/>
@@ -1838,13 +1847,13 @@
   </sheetPr>
   <dimension ref="A1:W33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="B16" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
-      <selection pane="topRight" activeCell="I24" activeCellId="0" sqref="I24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="0" topLeftCell="B13" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+      <selection pane="topRight" activeCell="I31" activeCellId="0" sqref="I31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="22.88"/>
@@ -2489,7 +2498,7 @@
       <c r="E27" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="F27" s="23" t="s">
+      <c r="F27" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G27" s="0" t="s">
@@ -2509,11 +2518,33 @@
       <c r="A28" s="3" t="n">
         <v>45653</v>
       </c>
+      <c r="D28" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="n">
         <v>45654</v>
       </c>
+      <c r="B29" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="23"/>
     </row>
     <row r="30" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="7" t="n">
@@ -2527,6 +2558,24 @@
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="n">
         <v>45656</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="I31" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2567,70 +2616,70 @@
       <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" s="25" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="25" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B11" s="0" t="n">
         <f aca="false">COUNTIF('Oct-10'!J2:J32,"YES")</f>
@@ -2643,7 +2692,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B12" s="0" t="n">
         <f aca="false">COUNTIF('Nov-11'!B2:B31,"YES")</f>
@@ -2660,11 +2709,11 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B13" s="26" t="n">
         <f aca="false">COUNTIF('Dec-12'!B2:B31,"YES")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C13" s="0" t="n">
         <f aca="false">COUNTIF('Dec-12'!C2:C32,"YES")</f>
@@ -2677,11 +2726,11 @@
     </row>
     <row r="15" s="27" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="27" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B15" s="27" t="n">
         <f aca="false">SUM(B2:B13)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C15" s="27" t="n">
         <f aca="false">SUM(C2:C13)</f>

--- a/Daily Activity/2024 Work Sheet.xlsx
+++ b/Daily Activity/2024 Work Sheet.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="122">
   <si>
     <t xml:space="preserve">DATE</t>
   </si>
@@ -369,6 +369,9 @@
   </si>
   <si>
     <t xml:space="preserve">Centra </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inventory Test Cycle document Assigned(5)</t>
   </si>
   <si>
     <t xml:space="preserve">MONTH</t>
@@ -784,7 +787,7 @@
       <selection pane="bottomLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.01953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="31.3"/>
@@ -1130,7 +1133,7 @@
       <selection pane="bottomLeft" activeCell="O9" activeCellId="0" sqref="O9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.01953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="22.88"/>
@@ -1847,13 +1850,13 @@
   </sheetPr>
   <dimension ref="A1:W33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="B13" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
-      <selection pane="topRight" activeCell="I31" activeCellId="0" sqref="I31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="22.88"/>
@@ -2521,7 +2524,7 @@
       <c r="D28" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="E28" s="23" t="s">
+      <c r="E28" s="2" t="s">
         <v>100</v>
       </c>
       <c r="F28" s="0" t="s">
@@ -2544,7 +2547,7 @@
       <c r="B29" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D29" s="23"/>
+      <c r="D29" s="2"/>
     </row>
     <row r="30" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="7" t="n">
@@ -2559,7 +2562,7 @@
       <c r="A31" s="3" t="n">
         <v>45656</v>
       </c>
-      <c r="D31" s="23" t="s">
+      <c r="D31" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E31" s="0" t="s">
@@ -2575,12 +2578,30 @@
         <v>101</v>
       </c>
       <c r="I31" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="n">
         <v>45657</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="F32" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="G32" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I32" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2616,70 +2637,70 @@
       <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" s="25" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="25" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B11" s="0" t="n">
         <f aca="false">COUNTIF('Oct-10'!J2:J32,"YES")</f>
@@ -2692,7 +2713,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B12" s="0" t="n">
         <f aca="false">COUNTIF('Nov-11'!B2:B31,"YES")</f>
@@ -2709,7 +2730,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B13" s="26" t="n">
         <f aca="false">COUNTIF('Dec-12'!B2:B31,"YES")</f>
@@ -2726,7 +2747,7 @@
     </row>
     <row r="15" s="27" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="27" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B15" s="27" t="n">
         <f aca="false">SUM(B2:B13)</f>
